--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -88,18 +88,9 @@
     <t>5​</t>
   </si>
   <si>
-    <t>1173 (~19 hours)​</t>
-  </si>
-  <si>
-    <t>1138 (~19 hours)​</t>
-  </si>
-  <si>
     <t>135​</t>
   </si>
   <si>
-    <t>6 sec.​</t>
-  </si>
-  <si>
     <t>6​</t>
   </si>
   <si>
@@ -119,12 +110,6 @@
   </si>
   <si>
     <t>5.5​</t>
-  </si>
-  <si>
-    <t>813 (~13.5 hrs)​</t>
-  </si>
-  <si>
-    <t>211 (~3.5 hrs)​</t>
   </si>
   <si>
     <t>7​</t>
@@ -202,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -214,6 +199,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -532,12 +520,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="40.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="30.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="23.862142857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1130,8 +1118,8 @@
       <c r="C30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>24</v>
+      <c r="D30" s="5">
+        <v>1173</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>7</v>
@@ -1170,8 +1158,8 @@
       <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>25</v>
+      <c r="D32" s="5">
+        <v>1138</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>7</v>
@@ -1214,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>7</v>
@@ -1233,8 +1221,8 @@
       <c r="D35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>27</v>
+      <c r="E35" s="5">
+        <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>7</v>
@@ -1354,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>7</v>
@@ -1368,7 +1356,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>7</v>
@@ -1454,7 +1442,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>7</v>
@@ -1491,13 +1479,13 @@
         <v>7</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
@@ -1511,13 +1499,13 @@
         <v>7</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
@@ -1531,13 +1519,13 @@
         <v>7</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
@@ -1551,10 +1539,10 @@
         <v>19</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>7</v>
@@ -1571,13 +1559,13 @@
         <v>7</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
@@ -1591,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
@@ -1611,13 +1599,13 @@
         <v>7</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
@@ -1631,13 +1619,13 @@
         <v>19</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
@@ -1651,13 +1639,13 @@
         <v>7</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
@@ -1671,13 +1659,13 @@
         <v>7</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
@@ -1691,13 +1679,13 @@
         <v>7</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
@@ -1711,13 +1699,13 @@
         <v>7</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
@@ -1731,13 +1719,13 @@
         <v>13</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
@@ -1751,13 +1739,13 @@
         <v>7</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
@@ -1771,13 +1759,13 @@
         <v>7</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
@@ -1791,13 +1779,13 @@
         <v>7</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
@@ -1811,13 +1799,13 @@
         <v>7</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
@@ -1831,10 +1819,10 @@
         <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>7</v>
@@ -1851,13 +1839,13 @@
         <v>7</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
@@ -1871,13 +1859,13 @@
         <v>7</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
@@ -1891,13 +1879,13 @@
         <v>7</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
@@ -1911,13 +1899,13 @@
         <v>19</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
@@ -1931,13 +1919,13 @@
         <v>7</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
@@ -1951,13 +1939,13 @@
         <v>7</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
@@ -1971,13 +1959,13 @@
         <v>7</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
@@ -1991,13 +1979,13 @@
         <v>7</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
@@ -2011,13 +1999,13 @@
         <v>13</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
@@ -2031,13 +2019,13 @@
         <v>7</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
@@ -2051,13 +2039,13 @@
         <v>7</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
@@ -2071,13 +2059,13 @@
         <v>7</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
@@ -2091,13 +2079,13 @@
         <v>7</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
@@ -2111,13 +2099,13 @@
         <v>7</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
@@ -2131,13 +2119,13 @@
         <v>7</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
@@ -2151,13 +2139,13 @@
         <v>19</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="F81" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
@@ -2171,13 +2159,13 @@
         <v>7</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
@@ -2190,14 +2178,14 @@
       <c r="C83" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>35</v>
+      <c r="D83" s="5">
+        <v>813</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
@@ -2211,10 +2199,10 @@
         <v>19</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>7</v>
@@ -2231,10 +2219,10 @@
         <v>13</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>7</v>
@@ -2251,13 +2239,13 @@
         <v>7</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
@@ -2271,13 +2259,13 @@
         <v>7</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
@@ -2291,13 +2279,13 @@
         <v>7</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
@@ -2311,13 +2299,13 @@
         <v>7</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
@@ -2330,14 +2318,14 @@
       <c r="C90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>36</v>
+      <c r="D90" s="5">
+        <v>211</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
@@ -2348,13 +2336,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>7</v>
@@ -2374,7 +2362,7 @@
         <v>7</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>7</v>
@@ -2431,7 +2419,7 @@
         <v>7</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>7</v>
@@ -2454,7 +2442,7 @@
         <v>7</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>7</v>
@@ -2494,7 +2482,7 @@
         <v>7</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>7</v>
@@ -2611,13 +2599,13 @@
         <v>7</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
@@ -2631,13 +2619,13 @@
         <v>7</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
@@ -2651,13 +2639,13 @@
         <v>7</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
@@ -2671,10 +2659,10 @@
         <v>19</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>7</v>
@@ -2691,13 +2679,13 @@
         <v>7</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
@@ -2711,13 +2699,13 @@
         <v>7</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
@@ -2731,13 +2719,13 @@
         <v>7</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleholland/Documents/GitHub/dora-metrics/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA293E4C-E0D3-8544-ACFF-E759B0FEB11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="19000" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -125,14 +131,37 @@
   </si>
   <si>
     <t>31​</t>
+  </si>
+  <si>
+    <t>SFS Testcard​</t>
+  </si>
+  <si>
+    <t>38​</t>
+  </si>
+  <si>
+    <t>29​</t>
+  </si>
+  <si>
+    <t>20​</t>
+  </si>
+  <si>
+    <t>0.05​</t>
+  </si>
+  <si>
+    <t>SFS Device UI​</t>
+  </si>
+  <si>
+    <t>SFS Device API​</t>
+  </si>
+  <si>
+    <t>15​</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +184,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -187,38 +222,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -229,10 +260,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -270,71 +301,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,7 +393,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -385,11 +416,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -398,13 +429,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -414,7 +445,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -423,7 +454,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -432,7 +463,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -440,10 +471,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -508,27 +539,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="6" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="40.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45014</v>
       </c>
@@ -568,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45014</v>
       </c>
@@ -588,7 +620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45014</v>
       </c>
@@ -608,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45014</v>
       </c>
@@ -628,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45014</v>
       </c>
@@ -648,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45014</v>
       </c>
@@ -668,7 +700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45021</v>
       </c>
@@ -688,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45021</v>
       </c>
@@ -708,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45021</v>
       </c>
@@ -728,7 +760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45021</v>
       </c>
@@ -748,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45021</v>
       </c>
@@ -768,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45021</v>
       </c>
@@ -788,7 +820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45028</v>
       </c>
@@ -808,7 +840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45028</v>
       </c>
@@ -828,7 +860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45028</v>
       </c>
@@ -848,7 +880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45028</v>
       </c>
@@ -868,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45028</v>
       </c>
@@ -888,7 +920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45028</v>
       </c>
@@ -908,7 +940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45042</v>
       </c>
@@ -928,7 +960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>45042</v>
       </c>
@@ -948,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>45042</v>
       </c>
@@ -968,7 +1000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>45042</v>
       </c>
@@ -988,7 +1020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>45042</v>
       </c>
@@ -1008,7 +1040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>45042</v>
       </c>
@@ -1028,7 +1060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>45042</v>
       </c>
@@ -1048,7 +1080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>45049</v>
       </c>
@@ -1068,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>45049</v>
       </c>
@@ -1088,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>45049</v>
       </c>
@@ -1108,7 +1140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>45049</v>
       </c>
@@ -1128,7 +1160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>45049</v>
       </c>
@@ -1148,7 +1180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>45049</v>
       </c>
@@ -1168,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>45049</v>
       </c>
@@ -1188,7 +1220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18">
+    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>45056</v>
       </c>
@@ -1208,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18">
+    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>45056</v>
       </c>
@@ -1228,7 +1260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18">
+    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>45056</v>
       </c>
@@ -1248,7 +1280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18">
+    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>45056</v>
       </c>
@@ -1268,7 +1300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18">
+    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>45056</v>
       </c>
@@ -1288,7 +1320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18">
+    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>45056</v>
       </c>
@@ -1308,7 +1340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18">
+    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>45056</v>
       </c>
@@ -1328,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18">
+    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>45063</v>
       </c>
@@ -1348,7 +1380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18">
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>45063</v>
       </c>
@@ -1368,7 +1400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18">
+    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>45063</v>
       </c>
@@ -1388,7 +1420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18">
+    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>45063</v>
       </c>
@@ -1408,7 +1440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18">
+    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>45063</v>
       </c>
@@ -1428,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18">
+    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45063</v>
       </c>
@@ -1448,7 +1480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18">
+    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45063</v>
       </c>
@@ -1468,7 +1500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18">
+    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>45119</v>
       </c>
@@ -1488,7 +1520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18">
+    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45119</v>
       </c>
@@ -1508,7 +1540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18">
+    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>45119</v>
       </c>
@@ -1528,7 +1560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18">
+    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>45119</v>
       </c>
@@ -1548,7 +1580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18">
+    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>45119</v>
       </c>
@@ -1568,7 +1600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18">
+    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>45119</v>
       </c>
@@ -1588,7 +1620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18">
+    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>45119</v>
       </c>
@@ -1608,7 +1640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18">
+    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>45112</v>
       </c>
@@ -1628,7 +1660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18">
+    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>45112</v>
       </c>
@@ -1648,7 +1680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18">
+    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>45112</v>
       </c>
@@ -1668,7 +1700,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18">
+    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>45112</v>
       </c>
@@ -1688,7 +1720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18">
+    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>45112</v>
       </c>
@@ -1708,7 +1740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18">
+    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>45112</v>
       </c>
@@ -1728,7 +1760,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18">
+    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>45112</v>
       </c>
@@ -1748,7 +1780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18">
+    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>45119</v>
       </c>
@@ -1768,7 +1800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18">
+    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>45119</v>
       </c>
@@ -1788,7 +1820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18">
+    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>45119</v>
       </c>
@@ -1808,7 +1840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18">
+    <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>45119</v>
       </c>
@@ -1828,7 +1860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18">
+    <row r="66" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>45119</v>
       </c>
@@ -1848,7 +1880,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18">
+    <row r="67" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>45119</v>
       </c>
@@ -1868,7 +1900,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18">
+    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>45119</v>
       </c>
@@ -1888,7 +1920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18">
+    <row r="69" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>45112</v>
       </c>
@@ -1908,7 +1940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18">
+    <row r="70" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>45112</v>
       </c>
@@ -1928,7 +1960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18">
+    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>45112</v>
       </c>
@@ -1948,7 +1980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18">
+    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>45112</v>
       </c>
@@ -1968,7 +2000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18">
+    <row r="73" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>45112</v>
       </c>
@@ -1988,7 +2020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18">
+    <row r="74" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>45112</v>
       </c>
@@ -2008,7 +2040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18">
+    <row r="75" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>45112</v>
       </c>
@@ -2028,7 +2060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18">
+    <row r="76" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>45098</v>
       </c>
@@ -2048,7 +2080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18">
+    <row r="77" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>45098</v>
       </c>
@@ -2068,7 +2100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18">
+    <row r="78" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>45098</v>
       </c>
@@ -2088,7 +2120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18">
+    <row r="79" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>45098</v>
       </c>
@@ -2108,7 +2140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18">
+    <row r="80" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>45098</v>
       </c>
@@ -2128,7 +2160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18">
+    <row r="81" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>45098</v>
       </c>
@@ -2148,7 +2180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18">
+    <row r="82" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>45098</v>
       </c>
@@ -2168,7 +2200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18">
+    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>45091</v>
       </c>
@@ -2188,7 +2220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18">
+    <row r="84" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>45091</v>
       </c>
@@ -2208,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18">
+    <row r="85" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>45091</v>
       </c>
@@ -2228,7 +2260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18">
+    <row r="86" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>45091</v>
       </c>
@@ -2248,7 +2280,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18">
+    <row r="87" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>45091</v>
       </c>
@@ -2268,7 +2300,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18">
+    <row r="88" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>45091</v>
       </c>
@@ -2288,7 +2320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18">
+    <row r="89" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>45091</v>
       </c>
@@ -2308,7 +2340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18">
+    <row r="90" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>45084</v>
       </c>
@@ -2328,7 +2360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18">
+    <row r="91" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>45084</v>
       </c>
@@ -2348,7 +2380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18">
+    <row r="92" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>45084</v>
       </c>
@@ -2368,7 +2400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18">
+    <row r="93" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>45084</v>
       </c>
@@ -2388,7 +2420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18">
+    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>45084</v>
       </c>
@@ -2408,7 +2440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18">
+    <row r="95" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>45084</v>
       </c>
@@ -2428,7 +2460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18">
+    <row r="96" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>45084</v>
       </c>
@@ -2448,7 +2480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18">
+    <row r="97" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>45077</v>
       </c>
@@ -2468,7 +2500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18">
+    <row r="98" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>45077</v>
       </c>
@@ -2488,7 +2520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18">
+    <row r="99" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>45077</v>
       </c>
@@ -2508,7 +2540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18">
+    <row r="100" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>45077</v>
       </c>
@@ -2528,7 +2560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18">
+    <row r="101" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>45077</v>
       </c>
@@ -2548,7 +2580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18">
+    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>45077</v>
       </c>
@@ -2568,7 +2600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18">
+    <row r="103" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>45077</v>
       </c>
@@ -2588,7 +2620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18">
+    <row r="104" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>45119</v>
       </c>
@@ -2608,7 +2640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18">
+    <row r="105" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>45119</v>
       </c>
@@ -2628,7 +2660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18">
+    <row r="106" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>45119</v>
       </c>
@@ -2648,7 +2680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18">
+    <row r="107" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>45119</v>
       </c>
@@ -2668,7 +2700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18">
+    <row r="108" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>45119</v>
       </c>
@@ -2688,7 +2720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18">
+    <row r="109" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>45119</v>
       </c>
@@ -2708,7 +2740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18">
+    <row r="110" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>45119</v>
       </c>
@@ -2725,6 +2757,186 @@
         <v>28</v>
       </c>
       <c r="F110" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" s="6" t="s">
         <v>28</v>
       </c>
     </row>
